--- a/biology/Botanique/Graptopetalum_paraguayense/Graptopetalum_paraguayense.xlsx
+++ b/biology/Botanique/Graptopetalum_paraguayense/Graptopetalum_paraguayense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Graptopetalum paraguayense est une espèce de plante succulente de la famille des Crassulaceae endémique du Tamaulipas, au Mexique.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Voir Kew Garden[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Voir Kew Garden.
 Byrnesia weinbergii (T.B.Sheph.) Rose
 Cotyledon paraguayensis N.E.Br.
 Echeveria weinbergii T.B.Sheph.
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante à port étalé, rampant, (20 cm de haut sur 60 cm de large). Son aspect peut varier selon le sol et l'exposition.
 La tige pendante peut atteindre jusqu'à 2 m de long et une épaisseur de 2 cm.
@@ -583,7 +599,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante rustique jusqu'à −10 °C (si mise à l'abri de la pluie et d'une trop grande humidité) est facile à cultiver dans les climats tempérés. Elle se multiplie très facilement par bouture de feuilles ou de tiges.
 Elle supporte aussi bien le plein soleil que la mi-ombre. Éviter les arrosages en cas de trop fortes chaleurs.
@@ -616,9 +634,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Mexique, introduite au Portugal et en Australie[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Mexique, introduite au Portugal et en Australie.
 </t>
         </is>
       </c>
